--- a/InputData/cost-outputs/CFQS/Cash Flow Quantization Size.xlsx
+++ b/InputData/cost-outputs/CFQS/Cash Flow Quantization Size.xlsx
@@ -65,7 +65,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Quantization Size</t>
+    <t>Quantization Size ($)</t>
   </si>
 </sst>
 </file>
@@ -122,6 +122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -510,7 +513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
